--- a/CompactionAnalyzer/Analysis_output/Random1/Cell/results_distance.xlsx
+++ b/CompactionAnalyzer/Analysis_output/Random1/Cell/results_distance.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.46788990825688</v>
+        <v>7.861635220125786</v>
       </c>
       <c r="C2" t="n">
         <v>2.5</v>
@@ -558,28 +558,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1321462411861908</v>
+        <v>0.1397912232098106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1321462411861908</v>
+        <v>0.1397912232098106</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8850890640315768</v>
+        <v>0.9108879247024354</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9231768362763491</v>
+        <v>0.9767282116061492</v>
       </c>
       <c r="I2" t="n">
-        <v>23.80726826573359</v>
+        <v>26.97979485776261</v>
       </c>
       <c r="J2" t="n">
-        <v>23.80726826573359</v>
+        <v>26.97979485776261</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6741150121311368</v>
+        <v>0.5883556996831996</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6741150121311368</v>
+        <v>0.5883556996831996</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.40366972477064</v>
+        <v>23.58490566037736</v>
       </c>
       <c r="C3" t="n">
         <v>7.5</v>
@@ -623,28 +623,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1244125473405322</v>
+        <v>0.1322372216074461</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1186174511493162</v>
+        <v>0.1262234276310625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944759372128897</v>
+        <v>0.8224793617487819</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8691490640667293</v>
+        <v>0.9239480276565915</v>
       </c>
       <c r="I3" t="n">
-        <v>20.70950577227845</v>
+        <v>23.11803260219172</v>
       </c>
       <c r="J3" t="n">
-        <v>18.46563142376322</v>
+        <v>20.20150947778976</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7498915957733681</v>
+        <v>0.6916887200697719</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7993569263959331</v>
+        <v>0.7615041565787337</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>57.3394495412844</v>
+        <v>39.30817610062893</v>
       </c>
       <c r="C4" t="n">
         <v>12.5</v>
@@ -688,28 +688,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1147136420900007</v>
+        <v>0.1236129599279975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1011605162969184</v>
+        <v>0.1104971173821199</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6775528829460721</v>
+        <v>0.7200057888236355</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8013922774630603</v>
+        <v>0.8636898834528708</v>
       </c>
       <c r="I4" t="n">
-        <v>20.90997999865017</v>
+        <v>20.85025306101478</v>
       </c>
       <c r="J4" t="n">
-        <v>21.18612015036739</v>
+        <v>17.47988602144937</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7452437560873695</v>
+        <v>0.7466323059466956</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7387819522015341</v>
+        <v>0.8195545562771642</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -722,37 +722,21 @@
  [False False False ... False False False]]</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>0.1500637402368572</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.1500637402368572</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.217918696447693</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.045923603656548</v>
-      </c>
-      <c r="R4" t="n">
-        <v>27.12486512978366</v>
-      </c>
-      <c r="S4" t="n">
-        <v>27.12486512978366</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.4530018376445235</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.4530018376445235</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>80.27522935779817</v>
+        <v>55.0314465408805</v>
       </c>
       <c r="C5" t="n">
         <v>17.5</v>
@@ -769,28 +753,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1194389899311257</v>
+        <v>0.1159188086138758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1289150351845479</v>
+        <v>0.09913107047557455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8634470932118561</v>
+        <v>0.6459439511699607</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8344036717419835</v>
+        <v>0.8099304665144419</v>
       </c>
       <c r="I5" t="n">
-        <v>22.70230550332215</v>
+        <v>20.84186866456619</v>
       </c>
       <c r="J5" t="n">
-        <v>26.26665797227943</v>
+        <v>20.82382606536121</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7020957488249212</v>
+        <v>0.7468269692961144</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6083000126322212</v>
+        <v>0.7472456534162963</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -804,28 +788,28 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1314368293030358</v>
+        <v>0.16501018900745</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1253674588085149</v>
+        <v>0.16501018900745</v>
       </c>
       <c r="P5" t="n">
-        <v>1.017483449153193</v>
+        <v>1.335179531525881</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9160965996238506</v>
+        <v>1.150838921096582</v>
       </c>
       <c r="R5" t="n">
-        <v>22.03814809565801</v>
+        <v>30.29538677935402</v>
       </c>
       <c r="S5" t="n">
-        <v>20.52849634357229</v>
+        <v>30.29538677935402</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6033828542181257</v>
+        <v>0.404292124970324</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6480134015097724</v>
+        <v>0.404292124970324</v>
       </c>
     </row>
     <row r="6">
@@ -833,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>103.2110091743119</v>
+        <v>70.75471698113208</v>
       </c>
       <c r="C6" t="n">
         <v>22.5</v>
@@ -850,28 +834,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1209547989516727</v>
+        <v>0.1161094020612908</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1248654466140972</v>
+        <v>0.1166358648284231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.836323759809712</v>
+        <v>0.7600062322938455</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8449931502124008</v>
+        <v>0.8112621523868674</v>
       </c>
       <c r="I6" t="n">
-        <v>24.2410433974909</v>
+        <v>22.53144926824272</v>
       </c>
       <c r="J6" t="n">
-        <v>28.18879973453443</v>
+        <v>27.15451842468025</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6628541726448287</v>
+        <v>0.7063301029445301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5537171483443335</v>
+        <v>0.5834131200307494</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -885,28 +869,28 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1187360708899199</v>
+        <v>0.1335784756339735</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1056635663256146</v>
+        <v>0.1277398781640285</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8575664764731711</v>
+        <v>1.033606904580422</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8275740625496035</v>
+        <v>0.9316231300928182</v>
       </c>
       <c r="R6" t="n">
-        <v>20.43155270672801</v>
+        <v>25.94379101808789</v>
       </c>
       <c r="S6" t="n">
-        <v>18.81417190299585</v>
+        <v>25.34374191596458</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6466172376822964</v>
+        <v>0.5067889412334852</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6901418627110761</v>
+        <v>0.5209224053563826</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>126.1467889908257</v>
+        <v>86.47798742138365</v>
       </c>
       <c r="C7" t="n">
         <v>27.5</v>
@@ -931,28 +915,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1220983615474329</v>
+        <v>0.1200925267413261</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1256942020451721</v>
+        <v>0.1335639798756954</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8418745977466585</v>
+        <v>0.870310836763833</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8529821061581877</v>
+        <v>0.8390924421289929</v>
       </c>
       <c r="I7" t="n">
-        <v>26.30440166738334</v>
+        <v>24.35341687717753</v>
       </c>
       <c r="J7" t="n">
-        <v>32.76649973960829</v>
+        <v>30.47295628842867</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6072537729907872</v>
+        <v>0.6599120588562154</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4141690821076191</v>
+        <v>0.4856350482741197</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -966,28 +950,28 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1160696302020729</v>
+        <v>0.1299143124600039</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1116341707527972</v>
+        <v>0.1263361221432368</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9060239569376829</v>
+        <v>1.022248416250149</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8089893381600377</v>
+        <v>0.9060679712313096</v>
       </c>
       <c r="R7" t="n">
-        <v>21.6205631025841</v>
+        <v>22.41370823380172</v>
       </c>
       <c r="S7" t="n">
-        <v>23.57642369871718</v>
+        <v>19.10560156077521</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6129428379425151</v>
+        <v>0.6104582962418581</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5575501922776712</v>
+        <v>0.7076087898841484</v>
       </c>
     </row>
     <row r="8">
@@ -995,10 +979,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>149.0825688073395</v>
+        <v>102.2012578616352</v>
       </c>
       <c r="C8" t="n">
-        <v>32.50000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1012,28 +996,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.125838675565587</v>
+        <v>0.120724280518836</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1396386284861279</v>
+        <v>0.1232079167802325</v>
       </c>
       <c r="G8" t="n">
-        <v>0.935271573977659</v>
+        <v>0.80283011369329</v>
       </c>
       <c r="H8" t="n">
-        <v>0.87911203033132</v>
+        <v>0.8435065371137438</v>
       </c>
       <c r="I8" t="n">
-        <v>29.10559706824897</v>
+        <v>25.49414184005008</v>
       </c>
       <c r="J8" t="n">
-        <v>39.40927393619697</v>
+        <v>29.95478944143507</v>
       </c>
       <c r="K8" t="n">
-        <v>0.526789738047536</v>
+        <v>0.6294792951930093</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1939167848301374</v>
+        <v>0.5013660915028179</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1047,28 +1031,28 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1211970992654585</v>
+        <v>0.1214770236286886</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1327656943926195</v>
+        <v>0.1074137626245334</v>
       </c>
       <c r="P8" t="n">
-        <v>1.077527597222433</v>
+        <v>0.8691381915451394</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8447270914104162</v>
+        <v>0.8472233602771776</v>
       </c>
       <c r="R8" t="n">
-        <v>23.35995087174025</v>
+        <v>20.62722148717799</v>
       </c>
       <c r="S8" t="n">
-        <v>27.2571135482609</v>
+        <v>17.70889252395568</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5733550378756745</v>
+        <v>0.6644034165227787</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4846571065679821</v>
+        <v>0.7525258765622092</v>
       </c>
     </row>
     <row r="9">
@@ -1076,10 +1060,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>172.0183486238532</v>
+        <v>117.9245283018868</v>
       </c>
       <c r="C9" t="n">
-        <v>37.50000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1093,28 +1077,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1281980673095051</v>
+        <v>0.1202380165408898</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1381228109988998</v>
+        <v>0.1180353299435418</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9251189319579505</v>
+        <v>0.7691252302189914</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8955947981053798</v>
+        <v>0.8401089865762895</v>
       </c>
       <c r="I9" t="n">
-        <v>32.37681526123422</v>
+        <v>26.41722902424603</v>
       </c>
       <c r="J9" t="n">
-        <v>46.10426971434303</v>
+        <v>30.58086034635554</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4265114286331889</v>
+        <v>0.6041199673621422</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03853673995163687</v>
+        <v>0.4823390269879692</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1128,28 +1112,28 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1201822711514753</v>
+        <v>0.1151038672097604</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1173307919311234</v>
+        <v>0.1003550000713137</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9522577868336498</v>
+        <v>0.8120222320056055</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8376538792114275</v>
+        <v>0.802774732581782</v>
       </c>
       <c r="R9" t="n">
-        <v>24.98874904383324</v>
+        <v>21.11143418729522</v>
       </c>
       <c r="S9" t="n">
-        <v>29.54335619311789</v>
+        <v>22.21803979144364</v>
       </c>
       <c r="T9" t="n">
-        <v>0.530526726489431</v>
+        <v>0.6472373241528127</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4107659503701185</v>
+        <v>0.6080064365421929</v>
       </c>
     </row>
     <row r="10">
@@ -1157,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>194.954128440367</v>
+        <v>133.6477987421383</v>
       </c>
       <c r="C10" t="n">
-        <v>42.5</v>
+        <v>42.49999999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1174,28 +1158,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1320433926019349</v>
+        <v>0.1229851368214003</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1503392712563391</v>
+        <v>0.1368385294093755</v>
       </c>
       <c r="G10" t="n">
-        <v>1.006942336679702</v>
+        <v>0.8916479962834439</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9224583335798169</v>
+        <v>0.8593032522607875</v>
       </c>
       <c r="I10" t="n">
-        <v>35.38106291075801</v>
+        <v>27.76828685083954</v>
       </c>
       <c r="J10" t="n">
-        <v>49.64754428742412</v>
+        <v>34.55776924819069</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3294908351196426</v>
+        <v>0.5658800558469403</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1615192267049535</v>
+        <v>0.3564846318912124</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1209,28 +1193,28 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1242069301889526</v>
+        <v>0.1170299031532614</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1377837754218041</v>
+        <v>0.1226524599865122</v>
       </c>
       <c r="P10" t="n">
-        <v>1.118254389024949</v>
+        <v>0.9924420731249179</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8657051984529905</v>
+        <v>0.8162075826411911</v>
       </c>
       <c r="R10" t="n">
-        <v>27.39826025289286</v>
+        <v>23.00133839293705</v>
       </c>
       <c r="S10" t="n">
-        <v>35.49770568195008</v>
+        <v>28.47039874846499</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4706069588396695</v>
+        <v>0.6102886736320706</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2691898056941396</v>
+        <v>0.5033655824245877</v>
       </c>
     </row>
     <row r="11">
@@ -1238,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>217.8899082568807</v>
+        <v>149.3710691823899</v>
       </c>
       <c r="C11" t="n">
         <v>47.5</v>
@@ -1255,28 +1239,28 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1341571607550541</v>
+        <v>0.1254690055603553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1453066791414819</v>
+        <v>0.1393843539677915</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9732350423623733</v>
+        <v>0.9082367405223546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9372251690092772</v>
+        <v>0.8766581663645341</v>
       </c>
       <c r="I11" t="n">
-        <v>37.73780858942125</v>
+        <v>29.43221008807959</v>
       </c>
       <c r="J11" t="n">
-        <v>50.14913705880809</v>
+        <v>38.72688464599579</v>
       </c>
       <c r="K11" t="n">
-        <v>0.250791986773592</v>
+        <v>0.5170649583173406</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1787725781253423</v>
+        <v>0.2172272952341255</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1290,28 +1274,28 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1262640853947621</v>
+        <v>0.1212799088775489</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1343125805964874</v>
+        <v>0.136199259776924</v>
       </c>
       <c r="P11" t="n">
-        <v>1.090082139885397</v>
+        <v>1.102055969737207</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8800432869395568</v>
+        <v>0.8458486128818903</v>
       </c>
       <c r="R11" t="n">
-        <v>30.44836638795389</v>
+        <v>24.6764476756393</v>
       </c>
       <c r="S11" t="n">
-        <v>42.34906726899177</v>
+        <v>30.51868061961816</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4042729725816833</v>
+        <v>0.5786858238025622</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1454554450114909</v>
+        <v>0.4684654266594403</v>
       </c>
     </row>
     <row r="12">
@@ -1319,10 +1303,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>240.8256880733945</v>
+        <v>165.0943396226415</v>
       </c>
       <c r="C12" t="n">
-        <v>52.5</v>
+        <v>52.49999999999999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1336,28 +1320,28 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1360879799861449</v>
+        <v>0.1264946808924739</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1472693846710083</v>
+        <v>0.1328349484502033</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9863808510097073</v>
+        <v>0.8655604246352214</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9507139188456687</v>
+        <v>0.8838246107937751</v>
       </c>
       <c r="I12" t="n">
-        <v>39.23185642483112</v>
+        <v>31.19103161212082</v>
       </c>
       <c r="J12" t="n">
-        <v>47.87231108919578</v>
+        <v>42.03645903451306</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1999885103494795</v>
+        <v>0.4635734435782115</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1000946727356083</v>
+        <v>0.1032626903368791</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1371,28 +1355,28 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.130373539419315</v>
+        <v>0.1207929966549362</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1486234168785084</v>
+        <v>0.1187973997366559</v>
       </c>
       <c r="P12" t="n">
-        <v>1.206229018819409</v>
+        <v>0.9612488627579215</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9086856155636274</v>
+        <v>0.8424527162993166</v>
       </c>
       <c r="R12" t="n">
-        <v>33.69906096984042</v>
+        <v>25.68065015800408</v>
       </c>
       <c r="S12" t="n">
-        <v>48.10376922249333</v>
+        <v>29.77558120622914</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3430722492705674</v>
+        <v>0.5487672318717859</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0718752659980465</v>
+        <v>0.4267653715218654</v>
       </c>
     </row>
     <row r="13">
@@ -1400,10 +1384,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>263.7614678899083</v>
+        <v>180.8176100628931</v>
       </c>
       <c r="C13" t="n">
-        <v>57.5</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1417,28 +1401,28 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.136880064632905</v>
+        <v>0.1291322111024537</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1418745757182769</v>
+        <v>0.1467169313090881</v>
       </c>
       <c r="G13" t="n">
-        <v>0.950247500838404</v>
+        <v>0.956016250592948</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9562474413408621</v>
+        <v>0.9022531652187139</v>
       </c>
       <c r="I13" t="n">
-        <v>39.71239572503334</v>
+        <v>33.12247422406926</v>
       </c>
       <c r="J13" t="n">
-        <v>42.73898499410641</v>
+        <v>45.97228086132343</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1835260247212905</v>
+        <v>0.4028273878395061</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07884240088515843</v>
+        <v>-0.03393248946915783</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1452,28 +1436,28 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1331794879749559</v>
+        <v>0.1204918714602357</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1471109886262521</v>
+        <v>0.1190964132408914</v>
       </c>
       <c r="P13" t="n">
-        <v>1.193954137208761</v>
+        <v>0.9636683297793616</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9282426905796083</v>
+        <v>0.8403525635980277</v>
       </c>
       <c r="R13" t="n">
-        <v>36.44455364124383</v>
+        <v>26.67715287911406</v>
       </c>
       <c r="S13" t="n">
-        <v>50.05164369955666</v>
+        <v>31.27636190252302</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2925005694206363</v>
+        <v>0.5161075759957978</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04185943339224269</v>
+        <v>0.3653718270367168</v>
       </c>
     </row>
     <row r="14">
@@ -1481,10 +1465,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>286.697247706422</v>
+        <v>196.5408805031446</v>
       </c>
       <c r="C14" t="n">
-        <v>62.50000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1498,28 +1482,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1368759747697676</v>
+        <v>0.1319584314286625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1368479910458137</v>
+        <v>0.1521980309908333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9165804431673692</v>
+        <v>0.9917314221148303</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9562188694580895</v>
+        <v>0.9220001068466565</v>
       </c>
       <c r="I14" t="n">
-        <v>39.73605212012144</v>
+        <v>34.90254585680917</v>
       </c>
       <c r="J14" t="n">
-        <v>39.89775454261903</v>
+        <v>47.62675122276561</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1827142239983525</v>
+        <v>0.3452147964187927</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1771618822565684</v>
+        <v>-0.09156249125734733</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1533,28 +1517,28 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1344836070112669</v>
+        <v>0.1238972608565854</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1416563249256667</v>
+        <v>0.1415292369229413</v>
       </c>
       <c r="P14" t="n">
-        <v>1.149684036428307</v>
+        <v>1.145183466479495</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9373322206679734</v>
+        <v>0.8641029433920406</v>
       </c>
       <c r="R14" t="n">
-        <v>38.48228373665961</v>
+        <v>28.13573378104149</v>
       </c>
       <c r="S14" t="n">
-        <v>49.6733038215078</v>
+        <v>35.66258710900137</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2427937290750879</v>
+        <v>0.4737406180016359</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.03019151559141443</v>
+        <v>0.2551103875135641</v>
       </c>
     </row>
     <row r="15">
@@ -1562,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>309.6330275229358</v>
+        <v>212.2641509433962</v>
       </c>
       <c r="C15" t="n">
         <v>67.5</v>
@@ -1579,28 +1563,28 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1381570557466669</v>
+        <v>0.1335170344219458</v>
       </c>
       <c r="F15" t="n">
-        <v>0.147545523072678</v>
+        <v>0.14555689998219</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9882303707333345</v>
+        <v>0.9484574174724875</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9651685321397649</v>
+        <v>0.9328901432829837</v>
       </c>
       <c r="I15" t="n">
-        <v>39.94526586944347</v>
+        <v>36.51361669146991</v>
       </c>
       <c r="J15" t="n">
-        <v>41.47717944997831</v>
+        <v>48.93861940187615</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1755294151419915</v>
+        <v>0.2919171283970603</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1226599544831219</v>
+        <v>-0.1370510475758685</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1614,28 +1598,28 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1364428119149948</v>
+        <v>0.125872802362887</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1482134902649183</v>
+        <v>0.1371795689722055</v>
       </c>
       <c r="P15" t="n">
-        <v>1.202902050651917</v>
+        <v>1.109988139138258</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9509876090381038</v>
+        <v>0.8778810626061883</v>
       </c>
       <c r="R15" t="n">
-        <v>39.53646774145427</v>
+        <v>29.81951082182777</v>
       </c>
       <c r="S15" t="n">
-        <v>45.86194961395153</v>
+        <v>39.42945416110675</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2108960475922212</v>
+        <v>0.4307377949760148</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01949852583427474</v>
+        <v>0.1853046511006943</v>
       </c>
     </row>
     <row r="16">
@@ -1643,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332.5688073394496</v>
+        <v>227.9874213836478</v>
       </c>
       <c r="C16" t="n">
         <v>72.5</v>
@@ -1660,28 +1644,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1400164829718259</v>
+        <v>0.1344342094279036</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1546311828988959</v>
+        <v>0.1420300271010071</v>
       </c>
       <c r="G16" t="n">
-        <v>1.035688701498846</v>
+        <v>0.9254761040132853</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9781585356964285</v>
+        <v>0.9392984905506409</v>
       </c>
       <c r="I16" t="n">
-        <v>39.97900672974049</v>
+        <v>37.97791640558361</v>
       </c>
       <c r="J16" t="n">
-        <v>40.24400175885694</v>
+        <v>50.08748863822851</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1743698014214738</v>
+        <v>0.2426697885919162</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1652541088610496</v>
+        <v>-0.1766548967666919</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1695,28 +1679,28 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1369811587178478</v>
+        <v>0.1270264285495873</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1404958950695906</v>
+        <v>0.1342706672960002</v>
       </c>
       <c r="P16" t="n">
-        <v>1.140265977039673</v>
+        <v>1.086450768502828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.954739812116397</v>
+        <v>0.8859268561661906</v>
       </c>
       <c r="R16" t="n">
-        <v>39.7212849071441</v>
+        <v>31.64273710901362</v>
       </c>
       <c r="S16" t="n">
-        <v>40.92661559020215</v>
+        <v>43.06450363800864</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2139491110850067</v>
+        <v>0.3911322481826415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2338604168960406</v>
+        <v>0.1430197061978926</v>
       </c>
     </row>
     <row r="17">
@@ -1724,10 +1708,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>355.5045871559633</v>
+        <v>243.7106918238993</v>
       </c>
       <c r="C17" t="n">
-        <v>77.5</v>
+        <v>77.49999999999999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1741,28 +1725,28 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.141001617060886</v>
+        <v>0.1360463665618177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1492607386144926</v>
+        <v>0.1501803646168228</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9997185409975051</v>
+        <v>0.9785841880184099</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9850407062635437</v>
+        <v>0.9505627124243753</v>
       </c>
       <c r="I17" t="n">
-        <v>39.61444435859462</v>
+        <v>38.95609259430204</v>
       </c>
       <c r="J17" t="n">
-        <v>36.56009738257584</v>
+        <v>47.52091705071211</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1868860183823812</v>
+        <v>0.2094106113797708</v>
       </c>
       <c r="L17" t="n">
-        <v>0.290364932110756</v>
+        <v>-0.08788308384693662</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1776,28 +1760,28 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1368846397503047</v>
+        <v>0.1301295579466333</v>
       </c>
       <c r="O17" t="n">
-        <v>0.136204155375241</v>
+        <v>0.1512144486230245</v>
       </c>
       <c r="P17" t="n">
-        <v>1.105434178193497</v>
+        <v>1.223551332719938</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.954067088204581</v>
+        <v>0.9075691687336792</v>
       </c>
       <c r="R17" t="n">
-        <v>39.80450387647208</v>
+        <v>33.56230421383042</v>
       </c>
       <c r="S17" t="n">
-        <v>40.39067326306978</v>
+        <v>46.57844209596892</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2324637726073945</v>
+        <v>0.3573736482677365</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3628754789200674</v>
+        <v>0.1284644373848555</v>
       </c>
     </row>
     <row r="18">
@@ -1805,7 +1789,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>378.4403669724771</v>
+        <v>259.4339622641509</v>
       </c>
       <c r="C18" t="n">
         <v>82.5</v>
@@ -1822,28 +1806,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1422429403420262</v>
+        <v>0.1365155501551069</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1532503210322237</v>
+        <v>0.1408667622513378</v>
       </c>
       <c r="G18" t="n">
-        <v>1.026439965203671</v>
+        <v>0.9178962010661295</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9937126207212889</v>
+        <v>0.9538409214668733</v>
       </c>
       <c r="I18" t="n">
-        <v>39.32117313971946</v>
+        <v>39.32108709488107</v>
       </c>
       <c r="J18" t="n">
-        <v>36.72216478273929</v>
+        <v>42.7021594551222</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1969327856782797</v>
+        <v>0.1969357303906789</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2849468307916992</v>
+        <v>0.08012378770279861</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1857,28 +1841,28 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.1393961337425529</v>
+        <v>0.1320807532809991</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1583587512238739</v>
+        <v>0.1463712494471125</v>
       </c>
       <c r="P18" t="n">
-        <v>1.285241081937891</v>
+        <v>1.18436259870492</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9715718554640663</v>
+        <v>0.9211774892074458</v>
       </c>
       <c r="R18" t="n">
-        <v>40.01408718660976</v>
+        <v>35.27904456980352</v>
       </c>
       <c r="S18" t="n">
-        <v>41.59522031195756</v>
+        <v>47.82989541197388</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2456145351367456</v>
+        <v>0.3299378740298786</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3448261863177398</v>
+        <v>0.1293587305381224</v>
       </c>
     </row>
     <row r="19">
@@ -1886,10 +1870,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>401.3761467889909</v>
+        <v>275.1572327044025</v>
       </c>
       <c r="C19" t="n">
-        <v>87.50000000000001</v>
+        <v>87.49999999999999</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1903,28 +1887,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1437010042311571</v>
+        <v>0.1369547001912415</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1573569423550439</v>
+        <v>0.141265300291417</v>
       </c>
       <c r="G19" t="n">
-        <v>1.053945292561607</v>
+        <v>0.9204930986388609</v>
       </c>
       <c r="H19" t="n">
-        <v>1.003898690307333</v>
+        <v>0.956909284555569</v>
       </c>
       <c r="I19" t="n">
-        <v>39.55825361814379</v>
+        <v>39.25921232195311</v>
       </c>
       <c r="J19" t="n">
-        <v>41.77750433925862</v>
+        <v>38.6524930905256</v>
       </c>
       <c r="K19" t="n">
-        <v>0.188812527318592</v>
+        <v>0.1990528090416474</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1122492507333874</v>
+        <v>0.2197613073570857</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1938,28 +1922,28 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.1407232101368888</v>
+        <v>0.1338150397394227</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1514133389587892</v>
+        <v>0.147441028794117</v>
       </c>
       <c r="P19" t="n">
-        <v>1.228872052092092</v>
+        <v>1.193018715614798</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9808213951763279</v>
+        <v>0.933273011118487</v>
       </c>
       <c r="R19" t="n">
-        <v>39.86416705060051</v>
+        <v>36.86525546906533</v>
       </c>
       <c r="S19" t="n">
-        <v>38.65737053684061</v>
+        <v>49.30821432178098</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2559668317824423</v>
+        <v>0.2975997210906065</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3392986365285644</v>
+        <v>0.04392455936813292</v>
       </c>
     </row>
     <row r="20">
@@ -1967,7 +1951,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>424.3119266055046</v>
+        <v>290.8805031446541</v>
       </c>
       <c r="C20" t="n">
         <v>92.5</v>
@@ -1984,28 +1968,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1450372357162877</v>
+        <v>0.1368272463970135</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1630378864511203</v>
+        <v>0.1355126250319295</v>
       </c>
       <c r="G20" t="n">
-        <v>1.091995118630647</v>
+        <v>0.8830083245000946</v>
       </c>
       <c r="H20" t="n">
-        <v>1.013233635773073</v>
+        <v>0.9560187585723178</v>
       </c>
       <c r="I20" t="n">
-        <v>39.92497408610115</v>
+        <v>39.26540535630543</v>
       </c>
       <c r="J20" t="n">
-        <v>44.86273278699388</v>
+        <v>39.32922324393261</v>
       </c>
       <c r="K20" t="n">
-        <v>0.176226690716571</v>
+        <v>0.1988409526942726</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004791511309413733</v>
+        <v>0.1966572791170592</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2019,28 +2003,28 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.1414671472492364</v>
+        <v>0.1345112856191514</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1478489320773493</v>
+        <v>0.1403338959810707</v>
       </c>
       <c r="P20" t="n">
-        <v>1.199943293047431</v>
+        <v>1.135511368238892</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9860065343992497</v>
+        <v>0.9381288740313444</v>
       </c>
       <c r="R20" t="n">
-        <v>39.44675805316209</v>
+        <v>38.25050180026405</v>
       </c>
       <c r="S20" t="n">
-        <v>35.86835403775783</v>
+        <v>49.81894630051826</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2615305244196716</v>
+        <v>0.2605243366288735</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3092274839862232</v>
+        <v>-0.0490989540532898</v>
       </c>
     </row>
     <row r="21">
@@ -2048,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>447.2477064220184</v>
+        <v>306.6037735849056</v>
       </c>
       <c r="C21" t="n">
         <v>97.5</v>
@@ -2065,28 +2049,28 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.144818811559155</v>
+        <v>0.1372706671169898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1406174154055425</v>
+        <v>0.1420686979051685</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9418272927829364</v>
+        <v>0.9257280852731978</v>
       </c>
       <c r="H21" t="n">
-        <v>1.01170771932976</v>
+        <v>0.9591169611408839</v>
       </c>
       <c r="I21" t="n">
-        <v>40.20363254383555</v>
+        <v>39.57635889862631</v>
       </c>
       <c r="J21" t="n">
-        <v>45.56120484874137</v>
+        <v>42.93814236506422</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1666437213737656</v>
+        <v>0.1881918637113504</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01958849184755469</v>
+        <v>0.07191028845427935</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2100,28 +2084,28 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.142872387172403</v>
+        <v>0.1361967401845968</v>
       </c>
       <c r="O21" t="n">
-        <v>0.155638154207303</v>
+        <v>0.1511595670197833</v>
       </c>
       <c r="P21" t="n">
-        <v>1.263160691520115</v>
+        <v>1.223107258364616</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9958008631432924</v>
+        <v>0.9498838251972199</v>
       </c>
       <c r="R21" t="n">
-        <v>39.34477438630424</v>
+        <v>39.08616036079624</v>
       </c>
       <c r="S21" t="n">
-        <v>38.41884522502873</v>
+        <v>46.49556340937618</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2548938837416361</v>
+        <v>0.2331725182961836</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1946385573150352</v>
+        <v>-0.00934357106138007</v>
       </c>
     </row>
     <row r="22">
@@ -2129,7 +2113,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>470.1834862385321</v>
+        <v>322.3270440251572</v>
       </c>
       <c r="C22" t="n">
         <v>102.5</v>
@@ -2146,28 +2130,28 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1443826427770279</v>
+        <v>0.1393656677706749</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1333479863148036</v>
+        <v>0.1631616709469978</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8931381122794926</v>
+        <v>1.06317115214614</v>
       </c>
       <c r="H22" t="n">
-        <v>1.008660633671082</v>
+        <v>0.9737548346411135</v>
       </c>
       <c r="I22" t="n">
-        <v>40.49493742138168</v>
+        <v>39.89655256216042</v>
       </c>
       <c r="J22" t="n">
-        <v>47.86149498450934</v>
+        <v>43.5306061055062</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1566090042441469</v>
+        <v>0.1772031754458183</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.09971900843610115</v>
+        <v>0.05126903609654363</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2181,28 +2165,28 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.1441456494552684</v>
+        <v>0.1367070713797384</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1573281266506429</v>
+        <v>0.1415146210185888</v>
       </c>
       <c r="P22" t="n">
-        <v>1.276876523419123</v>
+        <v>1.145065201925993</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.004675325909531</v>
+        <v>0.9534430539063771</v>
       </c>
       <c r="R22" t="n">
-        <v>39.74035486239597</v>
+        <v>39.32659109172944</v>
       </c>
       <c r="S22" t="n">
-        <v>43.83380433833663</v>
+        <v>41.5890167522702</v>
       </c>
       <c r="T22" t="n">
-        <v>0.238495430676224</v>
+        <v>0.2211232279103481</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0688049551248299</v>
+        <v>0.1077407844331196</v>
       </c>
     </row>
     <row r="23">
@@ -2210,7 +2194,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>493.1192660550459</v>
+        <v>338.0503144654088</v>
       </c>
       <c r="C23" t="n">
         <v>107.5</v>
@@ -2227,28 +2211,28 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1438597453996451</v>
+        <v>0.1401393445885732</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1263724483178763</v>
+        <v>0.1493186212426517</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8464173554770491</v>
+        <v>0.9729690169389874</v>
       </c>
       <c r="H23" t="n">
-        <v>1.005007659948816</v>
+        <v>0.9791605529498568</v>
       </c>
       <c r="I23" t="n">
-        <v>40.77487541897334</v>
+        <v>39.97476011742987</v>
       </c>
       <c r="J23" t="n">
-        <v>50.1329778769648</v>
+        <v>40.90198257676871</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1469505772884112</v>
+        <v>0.1745157633181816</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.1782175746575745</v>
+        <v>0.1425604359152252</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2262,28 +2246,28 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.1451089159467625</v>
+        <v>0.1369209837564876</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1604215359979388</v>
+        <v>0.1390445497942065</v>
       </c>
       <c r="P23" t="n">
-        <v>1.301982662143182</v>
+        <v>1.125078626793609</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.0113891607005</v>
+        <v>0.9549349538329697</v>
       </c>
       <c r="R23" t="n">
-        <v>40.05064601822616</v>
+        <v>39.23331340006546</v>
       </c>
       <c r="S23" t="n">
-        <v>44.98088154315591</v>
+        <v>38.30825933089038</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2310328224066831</v>
+        <v>0.2260760690534502</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1124589742391982</v>
+        <v>0.2751944141976423</v>
       </c>
     </row>
     <row r="24">
@@ -2291,7 +2275,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>516.0550458715596</v>
+        <v>353.7735849056604</v>
       </c>
       <c r="C24" t="n">
         <v>112.5</v>
@@ -2308,28 +2292,28 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1433966742152097</v>
+        <v>0.1408601429372786</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1227359385859403</v>
+        <v>0.1497712023463304</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8220607414251521</v>
+        <v>0.9759180623284157</v>
       </c>
       <c r="H24" t="n">
-        <v>1.001772633457101</v>
+        <v>0.9841968067710504</v>
       </c>
       <c r="I24" t="n">
-        <v>40.99424048094378</v>
+        <v>39.78261424587863</v>
       </c>
       <c r="J24" t="n">
-        <v>50.77765461193654</v>
+        <v>37.40874190943181</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1393721867303212</v>
+        <v>0.1811160191745217</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.2003137901962595</v>
+        <v>0.2618946914572371</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2343,28 +2327,28 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.1445473766443189</v>
+        <v>0.1368557378427515</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1323984282918659</v>
+        <v>0.1361749962700682</v>
       </c>
       <c r="P24" t="n">
-        <v>1.074546862169626</v>
+        <v>1.101859641632187</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.007475309093979</v>
+        <v>0.9544799059512495</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31474048430724</v>
+        <v>39.31375219408883</v>
       </c>
       <c r="S24" t="n">
-        <v>46.02591152915242</v>
+        <v>40.15223528726326</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2307978658559319</v>
+        <v>0.2355697444901615</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2257168163763317</v>
+        <v>0.3345305312898342</v>
       </c>
     </row>
     <row r="25">
@@ -2372,7 +2356,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>538.9908256880734</v>
+        <v>369.4968553459119</v>
       </c>
       <c r="C25" t="n">
         <v>117.5</v>
@@ -2389,28 +2373,28 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1431019345247012</v>
+        <v>0.1415036311196331</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1246322594436336</v>
+        <v>0.1497890199368496</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8347619188326464</v>
+        <v>0.9760341628079638</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9997135748522836</v>
+        <v>0.9886928906245942</v>
       </c>
       <c r="I25" t="n">
-        <v>41.20211163822928</v>
+        <v>39.52317197684047</v>
       </c>
       <c r="J25" t="n">
-        <v>54.22309125311055</v>
+        <v>36.18471755786905</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1321833273217039</v>
+        <v>0.1900149394018343</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.3164137633013372</v>
+        <v>0.3028783347619255</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2424,28 +2408,28 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.1442239391278164</v>
+        <v>0.1377514908182712</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1350448593081154</v>
+        <v>0.1475577732559366</v>
       </c>
       <c r="P25" t="n">
-        <v>1.096025320646417</v>
+        <v>1.193963353135536</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.005220994145651</v>
+        <v>0.9607272013098995</v>
       </c>
       <c r="R25" t="n">
-        <v>40.62199078251654</v>
+        <v>39.65721702965036</v>
       </c>
       <c r="S25" t="n">
-        <v>49.33798468675334</v>
+        <v>43.41414819624403</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2314255930579381</v>
+        <v>0.240986799982664</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2492327896598479</v>
+        <v>0.3002403319422786</v>
       </c>
     </row>
     <row r="26">
@@ -2453,7 +2437,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>561.9266055045872</v>
+        <v>385.2201257861635</v>
       </c>
       <c r="C26" t="n">
         <v>122.5</v>
@@ -2470,28 +2454,28 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.143114457152542</v>
+        <v>0.1425273893960795</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1443407939624242</v>
+        <v>0.1562382678058132</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9667657368307114</v>
+        <v>1.018057845499651</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9998010582331814</v>
+        <v>0.9958459404907481</v>
       </c>
       <c r="I26" t="n">
-        <v>41.35238554138139</v>
+        <v>39.4591567543512</v>
       </c>
       <c r="J26" t="n">
-        <v>56.06295007660869</v>
+        <v>38.60231069694748</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1269820120165191</v>
+        <v>0.1922083051173652</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.3766430554216799</v>
+        <v>0.2214698427761659</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2505,28 +2489,28 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.1436674700323242</v>
+        <v>0.1396896419131156</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1227535405116591</v>
+        <v>0.1619250686264402</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9962688642061401</v>
+        <v>1.310216287681396</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.001342481183345</v>
+        <v>0.974244546683113</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87262788450403</v>
+        <v>39.93846714992493</v>
       </c>
       <c r="S26" t="n">
-        <v>50.28853295881134</v>
+        <v>43.16262244161757</v>
       </c>
       <c r="T26" t="n">
-        <v>0.228156248856051</v>
+        <v>0.250499068440556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1053339116358141</v>
+        <v>0.359544464241899</v>
       </c>
     </row>
     <row r="27">
@@ -2534,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>584.862385321101</v>
+        <v>400.9433962264151</v>
       </c>
       <c r="C27" t="n">
         <v>127.5</v>
@@ -2551,28 +2535,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1431714113690409</v>
+        <v>0.1435035420782944</v>
       </c>
       <c r="F27" t="n">
-        <v>0.154264728479047</v>
+        <v>0.1570600641724626</v>
       </c>
       <c r="G27" t="n">
-        <v>1.033234263169289</v>
+        <v>1.023412719502161</v>
       </c>
       <c r="H27" t="n">
-        <v>1.000198941766819</v>
+        <v>1.002666367708295</v>
       </c>
       <c r="I27" t="n">
-        <v>41.40494643270683</v>
+        <v>39.60693826282412</v>
       </c>
       <c r="J27" t="n">
-        <v>51.63861749936674</v>
+        <v>41.65819290298644</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1251619301228895</v>
+        <v>0.187143407900729</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.2296630514970017</v>
+        <v>0.1163866991676733</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2586,28 +2570,1000 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.1432822454387381</v>
+        <v>0.1404537277779313</v>
       </c>
       <c r="O27" t="n">
-        <v>0.123672991365302</v>
+        <v>0.1496045454232584</v>
       </c>
       <c r="P27" t="n">
-        <v>1.00373113579386</v>
+        <v>1.210524805006739</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9986575188166551</v>
+        <v>0.9795735494409358</v>
       </c>
       <c r="R27" t="n">
-        <v>41.08431793192123</v>
+        <v>39.94980392423563</v>
       </c>
       <c r="S27" t="n">
-        <v>51.85576968354996</v>
+        <v>40.08547881178485</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2238469598318629</v>
+        <v>0.2589560815773151</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004576855383423206</v>
+        <v>0.3601669088271742</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>416.6666666666666</v>
+      </c>
+      <c r="C28" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1443291308832926</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1581963526157789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.030816842581063</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.008434797646258</v>
+      </c>
+      <c r="I28" t="n">
+        <v>39.86478294624722</v>
+      </c>
+      <c r="J28" t="n">
+        <v>44.19359087165773</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1782944848406367</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02814527158109274</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.1409216575961162</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.1467555459271153</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.187472132711417</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.9828370560786049</v>
+      </c>
+      <c r="R28" t="n">
+        <v>39.71960735755537</v>
+      </c>
+      <c r="S28" t="n">
+        <v>36.85152120658214</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2637534407645188</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.3235251378166918</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>432.3899371069182</v>
+      </c>
+      <c r="C29" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1451542526641285</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1642353932920547</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.070167590807582</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.01419996446323</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40.17609489248198</v>
+      </c>
+      <c r="J29" t="n">
+        <v>47.37188772372735</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1675914486823784</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.08269994120752515</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1417060300973695</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1518976586404771</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.229079524866878</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.9883075449527161</v>
+      </c>
+      <c r="R29" t="n">
+        <v>39.48797946152381</v>
+      </c>
+      <c r="S29" t="n">
+        <v>36.48017813919624</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2646578768872174</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.2764024215315438</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>448.1132075471698</v>
+      </c>
+      <c r="C30" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1449008989250189</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1376301594586611</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8968063047678297</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.012429769319198</v>
+      </c>
+      <c r="I30" t="n">
+        <v>40.43463669830199</v>
+      </c>
+      <c r="J30" t="n">
+        <v>47.85093278150429</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1586875751547368</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.09935214891617339</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1427533216696153</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.1569318850991968</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.269813955662816</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.9956117236239038</v>
+      </c>
+      <c r="R30" t="n">
+        <v>39.48051616839112</v>
+      </c>
+      <c r="S30" t="n">
+        <v>39.37953253932654</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.2579712118411843</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.167495909494139</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>463.8364779874213</v>
+      </c>
+      <c r="C31" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1444994570061019</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1306513197174617</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8513317699384791</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.009624874716201</v>
+      </c>
+      <c r="I31" t="n">
+        <v>40.65475414353189</v>
+      </c>
+      <c r="J31" t="n">
+        <v>48.2446302811428</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1510967766996636</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.1130169781145097</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1436891946932141</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.156788560517464</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.268654245168299</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.002138830266471</v>
+      </c>
+      <c r="R31" t="n">
+        <v>39.66184551597755</v>
+      </c>
+      <c r="S31" t="n">
+        <v>42.19857461778871</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.2496411604414552</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1331068868308221</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>479.5597484276729</v>
+      </c>
+      <c r="C32" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1442818757961722</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1352337984134189</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8811914736702988</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.008104624008224</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.89537666342744</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50.89740505434056</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.142788666776802</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.2044073845181814</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1445903881012664</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.1611753557702445</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.304149987981144</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.008424069109361</v>
+      </c>
+      <c r="R32" t="n">
+        <v>39.93051367138846</v>
+      </c>
+      <c r="S32" t="n">
+        <v>44.87248965308459</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2436766996715623</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.133964322990752</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>495.2830188679245</v>
+      </c>
+      <c r="C33" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1438750246698338</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1233700393962079</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8038865143014421</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.005261935004623</v>
+      </c>
+      <c r="I33" t="n">
+        <v>41.07723619188435</v>
+      </c>
+      <c r="J33" t="n">
+        <v>50.2390443577185</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1365027844809657</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.181859491842759</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1451394160630016</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.1584906406295275</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.282426622136741</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.012253182638263</v>
+      </c>
+      <c r="R33" t="n">
+        <v>40.2452671055479</v>
+      </c>
+      <c r="S33" t="n">
+        <v>47.89587363041829</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.2393428208873422</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1340006777806368</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>511.0062893081761</v>
+      </c>
+      <c r="C34" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1435792172715608</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1254246597383018</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8172745426517801</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.003195114037892</v>
+      </c>
+      <c r="I34" t="n">
+        <v>41.21952824043314</v>
+      </c>
+      <c r="J34" t="n">
+        <v>49.94887896224882</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1315806834481623</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.1718905512440754</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1447986149481313</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.1346031796304457</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.089141291225104</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.009876316156836</v>
+      </c>
+      <c r="R34" t="n">
+        <v>40.48202488798549</v>
+      </c>
+      <c r="S34" t="n">
+        <v>47.56173920112514</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2383240372265146</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.207859580298033</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>526.7295597484276</v>
+      </c>
+      <c r="C35" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1432939639788766</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.12170021825621</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7930058604384022</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.001202035130498</v>
+      </c>
+      <c r="I35" t="n">
+        <v>41.36691704427618</v>
+      </c>
+      <c r="J35" t="n">
+        <v>52.51985526206709</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1264788566997512</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.2594884461720642</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1444622993419722</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1322990407940803</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.070497357595223</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.007530733186062</v>
+      </c>
+      <c r="R35" t="n">
+        <v>40.71321467992593</v>
+      </c>
+      <c r="S35" t="n">
+        <v>49.07087138443331</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.2383919340385908</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.2408464465925413</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>542.4528301886792</v>
+      </c>
+      <c r="C36" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1431035922937082</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1246268045593803</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.8120756708524385</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9998718987218919</v>
+      </c>
+      <c r="I36" t="n">
+        <v>41.52385828728606</v>
+      </c>
+      <c r="J36" t="n">
+        <v>56.7500375369328</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1210426975532932</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.3987502705360063</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1442244792180176</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.1339003409677501</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.083454273944287</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.005872092246898</v>
+      </c>
+      <c r="R36" t="n">
+        <v>40.94460084860984</v>
+      </c>
+      <c r="S36" t="n">
+        <v>50.98522233749087</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.2359945961569035</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.131966069353037</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>558.1761006289307</v>
+      </c>
+      <c r="C37" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1431507245590842</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1493465570291216</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9731510481851433</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.000201214198305</v>
+      </c>
+      <c r="I37" t="n">
+        <v>41.65515635973421</v>
+      </c>
+      <c r="J37" t="n">
+        <v>58.9084166393702</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1164919735218664</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.466646506681999</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1438434105739218</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.1237987014461366</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.001716883027764</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.003214385896321</v>
+      </c>
+      <c r="R37" t="n">
+        <v>41.11548648600256</v>
+      </c>
+      <c r="S37" t="n">
+        <v>50.1006129782892</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2312135959369769</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.0201702675118138</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>573.8993710691824</v>
+      </c>
+      <c r="C38" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1430721299314365</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1276670532990936</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.831886112463213</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9996520696358528</v>
+      </c>
+      <c r="I38" t="n">
+        <v>41.75103924337654</v>
+      </c>
+      <c r="J38" t="n">
+        <v>60.53749410429584</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1131671704463026</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.5161594864454017</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0.143486111133032</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.1205311323132634</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.9752773555640322</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.000722454303882</v>
+      </c>
+      <c r="R38" t="n">
+        <v>41.25442472585276</v>
+      </c>
+      <c r="S38" t="n">
+        <v>50.17703165530369</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2268266827605477</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.05490066565779619</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>589.6226415094339</v>
+      </c>
+      <c r="C39" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1431717228593729</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1792669161142717</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.168113887536787</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.000347930364147</v>
+      </c>
+      <c r="I39" t="n">
+        <v>41.79734173265476</v>
+      </c>
+      <c r="J39" t="n">
+        <v>58.5721978668865</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1115611444802221</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.4562345533411096</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>[[False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]
+ ...
+ [False False False ... False False False]
+ [False False False ... False False False]
+ [False False False ... False False False]]</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1432789364901736</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.1266419033890915</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.024722644435968</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.9992775456961177</v>
+      </c>
+      <c r="R39" t="n">
+        <v>41.40582762634087</v>
+      </c>
+      <c r="S39" t="n">
+        <v>53.55933313864099</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.2242576677062164</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.01803613216535929</v>
       </c>
     </row>
   </sheetData>
